--- a/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
+++ b/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -137,10 +137,16 @@
     <t xml:space="preserve">Made final adjustments. Made a UITableViewcCell extension for cellForRow at: IndexPath delegate methods in HousesViewController and FavoritesViewController to avoid repetition. A few Tableviewcell adjustments to image to have rounded corners and better spacing between cells. Made favourite button to top of the detailview. Pushing to repository one more time and sending to DTT. </t>
   </si>
   <si>
-    <t xml:space="preserve">Total: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes: In stead of notifications perhaps it was better to use the new combine framework, but I’m too new with this framework for now. Also still haven’t found the solution to modifying a existing core data object. </t>
+    <t xml:space="preserve">After feedback work. Fixing UI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixing UI as per feedback. Added stackviews for bedroom, bathroom etc icons set in details and housesview and added stack view in about page. Keyboard dismissed when search is tapped. Removed selection style for tableviewcell. Detail view already had rounded corners, but it wasn’t showing because it didn’t overlap imageview. Pin is centered in map view. I’m not sure why the detailview should be scrollable.. Also in the search logic it works as intended. When entering a “T” it shows the results because Amsterdam contains a “T”. Fixed favorite functionality to save in CoreData. Distance unit added. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependency injection, seperation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trying to implement a better dependency injection for all types. Finding it hard to make it work. Somehow I always get stuck trying things like an abstractFactory and using protocols to inject dependencies. So far I’ve only been able to inject dependencies by properties and initialisers through a RootViewController, but I’m sure there is a better way. I’ve tried to separate more code from the view controller classes, into a view model to conform to MVVM Pattern. Added constants. Removed force unwrapping or used Guard != nil for safer code. Added more protocols to Service layer. </t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -993,10 +999,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1570,10 +1576,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2092,26 +2098,35 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" ht="37.75" customHeight="1">
+    <row r="17" ht="83" customHeight="1">
       <c r="A17" t="s" s="11">
         <v>33</v>
       </c>
       <c r="B17" s="12">
-        <f>SUM(B4:B16)</f>
-        <v>13.5</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44621</v>
+      </c>
       <c r="D17" t="s" s="14">
         <v>34</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
+    <row r="18" ht="83" customHeight="1">
+      <c r="A18" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44621</v>
+      </c>
+      <c r="D18" t="s" s="14">
+        <v>36</v>
+      </c>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
     </row>
@@ -2205,11 +2220,11 @@
     </row>
     <row r="30" ht="16.25" customHeight="1">
       <c r="A30" t="s" s="26">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="27">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>

--- a/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
+++ b/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t xml:space="preserve">Trying to implement a better dependency injection for all types. Finding it hard to make it work. Somehow I always get stuck trying things like an abstractFactory and using protocols to inject dependencies. So far I’ve only been able to inject dependencies by properties and initialisers through a RootViewController, but I’m sure there is a better way. I’ve tried to separate more code from the view controller classes, into a view model to conform to MVVM Pattern. Added constants. Removed force unwrapping or used Guard != nil for safer code. Added more protocols to Service layer. </t>
+  </si>
+  <si>
+    <t>Minor adjustments separation</t>
+  </si>
+  <si>
+    <t>Created a DetailViewModel to separate logic even more from view.</t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -2131,10 +2137,18 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="A19" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44621</v>
+      </c>
+      <c r="D19" t="s" s="14">
+        <v>38</v>
+      </c>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
     </row>
@@ -2220,11 +2234,11 @@
     </row>
     <row r="30" ht="16.25" customHeight="1">
       <c r="A30" t="s" s="26">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="27">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>

--- a/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
+++ b/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Created a DetailViewModel to separate logic even more from view.</t>
+  </si>
+  <si>
+    <t>Replaced segue to detail view</t>
+  </si>
+  <si>
+    <t>Replaced segue to detailview with new method storyboard.instantiateViewController. Removed optional HouseManager (view model). Made code a bit cleaner.</t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -2153,10 +2159,18 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="A20" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
+        <v>44621</v>
+      </c>
+      <c r="D20" t="s" s="14">
+        <v>40</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
     </row>
@@ -2234,11 +2248,11 @@
     </row>
     <row r="30" ht="16.25" customHeight="1">
       <c r="A30" t="s" s="26">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="27">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>

--- a/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
+++ b/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Replaced segue to detailview with new method storyboard.instantiateViewController. Removed optional HouseManager (view model). Made code a bit cleaner.</t>
+  </si>
+  <si>
+    <t>Just some more refactoring</t>
+  </si>
+  <si>
+    <t>Added an infoViewModel for consistency. Took out the houses property in HousesViewController and made use of the HouseManager.houses. Same for chosenHouse in DetailViewController. Now I think it’s proper use of the MVVM pattern.</t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -2158,7 +2164,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" ht="17" customHeight="1">
+    <row r="20" ht="28.45" customHeight="1">
       <c r="A20" t="s" s="11">
         <v>39</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="13">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="D20" t="s" s="14">
         <v>40</v>
@@ -2174,11 +2180,19 @@
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
+    <row r="21" ht="43" customHeight="1">
+      <c r="A21" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44622</v>
+      </c>
+      <c r="D21" t="s" s="14">
+        <v>42</v>
+      </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
     </row>
@@ -2248,11 +2262,11 @@
     </row>
     <row r="30" ht="16.25" customHeight="1">
       <c r="A30" t="s" s="26">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="27">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>

--- a/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
+++ b/RealEstateDTT/Log/DTT-Test-Hour-Log-1_updated_bonus Patrick Rugebregt.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <r>
       <rPr>
@@ -167,6 +167,12 @@
     <t>Added an infoViewModel for consistency. Took out the houses property in HousesViewController and made use of the HouseManager.houses. Same for chosenHouse in DetailViewController. Now I think it’s proper use of the MVVM pattern.</t>
   </si>
   <si>
+    <t>Fixed bug and removed singleton core data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a small bug in the sent version where there were 2 instances of coredatamanager. First fixed it by making it a singleton, now I used the AppDelegate to reference the core data instance. Fixed search bug (original filter list of houses was being updated to contain only filtered results) </t>
+  </si>
+  <si>
     <t>Total amount of hours</t>
   </si>
 </sst>
@@ -174,9 +180,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="60" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -573,7 +580,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -624,6 +631,9 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
@@ -2196,11 +2206,19 @@
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+    <row r="22" ht="43" customHeight="1">
+      <c r="A22" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44623</v>
+      </c>
+      <c r="D22" t="s" s="14">
+        <v>44</v>
+      </c>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
     </row>
@@ -2245,57 +2263,57 @@
       <c r="F27" s="16"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" ht="16.25" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" ht="16.25" customHeight="1">
-      <c r="A30" t="s" s="26">
-        <v>43</v>
-      </c>
-      <c r="B30" s="27">
+      <c r="A30" t="s" s="27">
+        <v>45</v>
+      </c>
+      <c r="B30" s="28">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>14.5</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" ht="16.25" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="25"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" ht="16.25" customHeight="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="25"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" ht="16.25" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
